--- a/data/Pesquisa.xlsx
+++ b/data/Pesquisa.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3888" uniqueCount="696">
   <si>
     <t>DEPUTADO</t>
   </si>
@@ -540,1516 +540,1531 @@
     <t>José Mario Schreiner</t>
   </si>
   <si>
+    <t>José Nelto</t>
+  </si>
+  <si>
+    <t>Lucas Vergílio</t>
+  </si>
+  <si>
+    <t>Magda Mofatto</t>
+  </si>
+  <si>
+    <t>Professor Alcides</t>
+  </si>
+  <si>
+    <t>Rubens Otoni</t>
+  </si>
+  <si>
+    <t>Vitor Hugo</t>
+  </si>
+  <si>
+    <t>Aluisio Mendes</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>André Fufuca</t>
+  </si>
+  <si>
+    <t>Bira do Pindaré</t>
+  </si>
+  <si>
+    <t>Cleber Verde</t>
+  </si>
+  <si>
+    <t>Pedro Lucas Fernandes</t>
+  </si>
+  <si>
+    <t>Edilázio Júnior</t>
+  </si>
+  <si>
+    <t>Eduardo Braide</t>
+  </si>
+  <si>
+    <t>Gastão Vieira</t>
+  </si>
+  <si>
+    <t>Gil Cutrim</t>
+  </si>
+  <si>
+    <t>Gildenemyr</t>
+  </si>
+  <si>
+    <t>Hildo Rocha</t>
+  </si>
+  <si>
+    <t>João Marcelo Souza</t>
+  </si>
+  <si>
+    <t>Josimar Maranhãozinho</t>
+  </si>
+  <si>
+    <t>Junior Lourenço</t>
+  </si>
+  <si>
+    <t>Juscelino Filho</t>
+  </si>
+  <si>
+    <t>Márcio Jerry</t>
+  </si>
+  <si>
+    <t>PCDOB</t>
+  </si>
+  <si>
+    <t>Marreca Filho</t>
+  </si>
+  <si>
+    <t>PATRIOTA</t>
+  </si>
+  <si>
+    <t>Zé Carlos</t>
+  </si>
+  <si>
+    <t>Carlos Bezerra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDB </t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Dr. Leonardo</t>
+  </si>
+  <si>
+    <t>Emanuel Pinheiro Neto</t>
+  </si>
+  <si>
+    <t>José Medeiros</t>
+  </si>
+  <si>
+    <t>Juarez Costa</t>
+  </si>
+  <si>
+    <t>Nelson Barbudo</t>
+  </si>
+  <si>
+    <t>Neri Geller</t>
+  </si>
+  <si>
+    <t>Professora Rosa Neide</t>
+  </si>
+  <si>
+    <t>Valtenir Pereira</t>
+  </si>
+  <si>
+    <t>Beto Pereira</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Bia Cavassa</t>
+  </si>
+  <si>
+    <t>Dagoberto Nogueira</t>
+  </si>
+  <si>
+    <t>Dr. Luiz Ovando</t>
+  </si>
+  <si>
+    <t>Fábio Trad</t>
+  </si>
+  <si>
+    <t>Loester Trutis</t>
+  </si>
+  <si>
+    <t>Rose Modesto</t>
+  </si>
+  <si>
+    <t>Vander Loubet</t>
+  </si>
+  <si>
+    <t>Aécio Neves</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Alê Silva</t>
+  </si>
+  <si>
+    <t>André Janones</t>
+  </si>
+  <si>
+    <t>Áurea Carolina</t>
+  </si>
+  <si>
+    <t>PSOL</t>
+  </si>
+  <si>
+    <t>Bilac Pinto</t>
+  </si>
+  <si>
+    <t>Charlles Evangelista</t>
+  </si>
+  <si>
+    <t>Delegado Marcelo Freitas</t>
+  </si>
+  <si>
+    <t>Diego Andrade</t>
+  </si>
+  <si>
+    <t>Dimas Fabiano</t>
+  </si>
+  <si>
+    <t>Domingos Sávio</t>
+  </si>
+  <si>
+    <t>Dr. Frederico</t>
+  </si>
+  <si>
+    <t>Eduardo Barbosa</t>
+  </si>
+  <si>
+    <t>Emidinho Madeira</t>
+  </si>
+  <si>
+    <t>Enéias Reis</t>
+  </si>
+  <si>
+    <t>Eros Biondini</t>
+  </si>
+  <si>
+    <t>Euclydes Pettersen</t>
+  </si>
+  <si>
+    <t>Fábio Ramalho</t>
+  </si>
+  <si>
+    <t>Franco Cartafina</t>
+  </si>
+  <si>
+    <t>Fred Costa</t>
+  </si>
+  <si>
+    <t>Gilberto Abramo</t>
+  </si>
+  <si>
+    <t>Greyce Elias</t>
+  </si>
+  <si>
+    <t>Hercílio Coelho Diniz</t>
+  </si>
+  <si>
+    <t>Igor Timo</t>
+  </si>
+  <si>
+    <t>Júlio Delgado</t>
+  </si>
+  <si>
+    <t>Junio Amaral</t>
+  </si>
+  <si>
+    <t>Lafayette de Andrada</t>
+  </si>
+  <si>
+    <t>Léo Motta</t>
+  </si>
+  <si>
+    <t>Leonardo Monteiro</t>
+  </si>
+  <si>
+    <t>Lincoln Portela</t>
+  </si>
+  <si>
+    <t>Lucas Gonzalez</t>
+  </si>
+  <si>
+    <t>NOVO</t>
+  </si>
+  <si>
+    <t>Luis Tibé</t>
+  </si>
+  <si>
+    <t>Marcelo Aro</t>
+  </si>
+  <si>
+    <t>Margarida Salomão</t>
+  </si>
+  <si>
+    <t>Mário Heringer</t>
+  </si>
+  <si>
+    <t>Mauro Lopes</t>
+  </si>
+  <si>
+    <t>Misael Varella</t>
+  </si>
+  <si>
+    <t>Newton Cardoso Jr</t>
+  </si>
+  <si>
+    <t>Odair Cunha</t>
+  </si>
+  <si>
+    <t>Padre João</t>
+  </si>
+  <si>
+    <t>Patrus Ananias</t>
+  </si>
+  <si>
+    <t>Paulo Abi-Ackel</t>
+  </si>
+  <si>
+    <t>Paulo Guedes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinheirinho </t>
+  </si>
+  <si>
+    <t>Reginaldo Lopes</t>
+  </si>
+  <si>
+    <t>Rodrigo de Castro</t>
+  </si>
+  <si>
+    <t>Rogério Correia</t>
+  </si>
+  <si>
+    <t>Stefano Aguiar</t>
+  </si>
+  <si>
+    <t>Subtenente Gonzaga</t>
+  </si>
+  <si>
+    <t>Tiago Mitraud</t>
+  </si>
+  <si>
+    <t>Vilson da FETAEMG</t>
+  </si>
+  <si>
+    <t>Weliton Prado</t>
+  </si>
+  <si>
+    <t>Zé Silva</t>
+  </si>
+  <si>
+    <t>Zé Vitor</t>
+  </si>
+  <si>
+    <t>Airton Faleiro</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Beto Faro</t>
+  </si>
+  <si>
+    <t>Cássio Andrade</t>
+  </si>
+  <si>
+    <t>Celso Sabino</t>
+  </si>
+  <si>
+    <t>Cristiano Vale</t>
+  </si>
+  <si>
+    <t>Delegado Éder Mauro</t>
+  </si>
+  <si>
+    <t>Edmilson Rodrigues</t>
+  </si>
+  <si>
+    <t>Eduardo Costa</t>
+  </si>
+  <si>
+    <t>Elcione Barbalho</t>
+  </si>
+  <si>
+    <t>Hélio Leite</t>
+  </si>
+  <si>
+    <t>Joaquim Passarinho</t>
+  </si>
+  <si>
+    <t>José Priante</t>
+  </si>
+  <si>
+    <t>Júnior Ferrari</t>
+  </si>
+  <si>
+    <t>Nilson Pinto</t>
+  </si>
+  <si>
+    <t>Olival Marques</t>
+  </si>
+  <si>
+    <t>Paulo Bengtson</t>
+  </si>
+  <si>
+    <t>Vavá Martins</t>
+  </si>
+  <si>
+    <t>Aguinaldo Ribeiro</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>Damião Feliciano</t>
+  </si>
+  <si>
+    <t>Edna Henrique</t>
+  </si>
+  <si>
+    <t>Efraim Filho</t>
+  </si>
+  <si>
+    <t>Frei Anastácio</t>
+  </si>
+  <si>
+    <t>Gervásio Maia</t>
+  </si>
+  <si>
+    <t>Hugo Motta</t>
+  </si>
+  <si>
+    <t>Julian Lemos</t>
+  </si>
+  <si>
+    <t>Pedro Cunha Lima</t>
+  </si>
+  <si>
+    <t>Ruy Carneiro</t>
+  </si>
+  <si>
+    <t>Wellington Roberto</t>
+  </si>
+  <si>
+    <t>Wilson Santiago</t>
+  </si>
+  <si>
+    <t>Aliel Machado</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Aline Sleutjes</t>
+  </si>
+  <si>
+    <t>Aroldo Martins</t>
+  </si>
+  <si>
+    <t>Boca Aberta</t>
+  </si>
+  <si>
+    <t>Christiane de Souza Yared</t>
+  </si>
+  <si>
+    <t>Diego Garcia</t>
+  </si>
+  <si>
+    <t>Enio Verri</t>
+  </si>
+  <si>
+    <t>Felipe Francischini</t>
+  </si>
+  <si>
+    <t>Filipe Barros</t>
+  </si>
+  <si>
+    <t>Giacobo</t>
+  </si>
+  <si>
+    <t>Gleisi Hoffmann</t>
+  </si>
+  <si>
+    <t>Gustavo Fruet</t>
+  </si>
+  <si>
+    <t>Hermes Parcianello</t>
+  </si>
+  <si>
+    <t>Leandre</t>
+  </si>
+  <si>
+    <t>Luciano Ducci</t>
+  </si>
+  <si>
+    <t>Luisa Canziani</t>
+  </si>
+  <si>
+    <t>Luiz Nishimori</t>
+  </si>
+  <si>
+    <t>Ney Leprevost</t>
+  </si>
+  <si>
+    <t>Paulo Eduardo Martins</t>
+  </si>
+  <si>
+    <t>Pedro Lupion</t>
+  </si>
+  <si>
+    <t>Ricardo Barros</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>PATRIOTRA</t>
+  </si>
+  <si>
+    <t>Rubens Bueno</t>
+  </si>
+  <si>
+    <t>Sargento Fahur</t>
+  </si>
+  <si>
+    <t>Schiavinato</t>
+  </si>
+  <si>
+    <t>Sergio Souza</t>
+  </si>
+  <si>
+    <t>Toninho Wandscheer</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
+  </si>
+  <si>
+    <t>Zeca Dirceu</t>
+  </si>
+  <si>
+    <t>Carlos Veras</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Danilo Cabral</t>
+  </si>
+  <si>
+    <t>Gonzaga Patriota</t>
+  </si>
+  <si>
+    <t>Marília Arraes</t>
+  </si>
+  <si>
+    <t>Renildo Calheiros</t>
+  </si>
+  <si>
+    <t>Tadeu Alencar</t>
+  </si>
+  <si>
+    <t>Túlio Gadêlha</t>
+  </si>
+  <si>
+    <t>Wolney Queiroz</t>
+  </si>
+  <si>
+    <t>Daniel Coelho</t>
+  </si>
+  <si>
+    <t>Silvio Costa Filho</t>
+  </si>
+  <si>
+    <t>André de Paula</t>
+  </si>
+  <si>
+    <t>André Ferreira</t>
+  </si>
+  <si>
+    <t>Augusto Coutinho</t>
+  </si>
+  <si>
+    <t>Eduardo da Fonte</t>
+  </si>
+  <si>
+    <t>Felipe Carreras</t>
+  </si>
+  <si>
+    <t>Fernando Coelho Filho</t>
+  </si>
+  <si>
+    <t>Fernando Monteiro</t>
+  </si>
+  <si>
+    <t>Fernando Rodolfo</t>
+  </si>
+  <si>
+    <t>Luciano Bivar</t>
+  </si>
+  <si>
+    <t>Ossesio Silva</t>
+  </si>
+  <si>
+    <t>Pastor Eurico</t>
+  </si>
+  <si>
+    <t>Raul Henry</t>
+  </si>
+  <si>
+    <t>Ricardo Teobaldo</t>
+  </si>
+  <si>
+    <t>Sebastião Oliveira</t>
+  </si>
+  <si>
+    <t>Assis Carvalho</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Flávio Nogueira</t>
+  </si>
+  <si>
+    <t>Rejane Dias</t>
+  </si>
+  <si>
+    <t>Átila Lira</t>
+  </si>
+  <si>
+    <t>Capitão Fábio Abreu</t>
+  </si>
+  <si>
+    <t>Iracema Portella</t>
+  </si>
+  <si>
+    <t>Júlio Cesar</t>
+  </si>
+  <si>
+    <t>Marcos Aurélio Sampaio</t>
+  </si>
+  <si>
+    <t>Margarete Coelho</t>
+  </si>
+  <si>
+    <t>Marina Santos</t>
+  </si>
+  <si>
+    <t>Alessandro Molon</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Benedita da Silva</t>
+  </si>
+  <si>
+    <t>Chico d'Ângelo</t>
+  </si>
+  <si>
+    <t>David Miranda</t>
+  </si>
+  <si>
+    <t>Glauber Braga</t>
+  </si>
+  <si>
+    <t>Jandira Feghali</t>
+  </si>
+  <si>
+    <t>Marcelo Calero</t>
+  </si>
+  <si>
+    <t>Marcelo Freixo</t>
+  </si>
+  <si>
+    <t>Talíria Petrone</t>
+  </si>
+  <si>
+    <t>Áureo Ribeiro</t>
+  </si>
+  <si>
+    <t>Carlos Jordy</t>
+  </si>
+  <si>
+    <t>Chris Tonietto</t>
+  </si>
+  <si>
+    <t>Clarissa Garotinho</t>
+  </si>
+  <si>
+    <t>Daniel Silveira</t>
+  </si>
+  <si>
+    <t>Daniela do Waguinho</t>
+  </si>
+  <si>
+    <t>Delegado Antônio Furtado</t>
+  </si>
+  <si>
+    <t>Felício Laterça</t>
+  </si>
+  <si>
+    <t>Flordelis</t>
+  </si>
+  <si>
+    <t>Gurgel</t>
+  </si>
+  <si>
+    <t>Gutemberg Reis</t>
+  </si>
+  <si>
+    <t>Helio Lopes</t>
+  </si>
+  <si>
+    <t>Hugo Leal</t>
+  </si>
+  <si>
+    <t>Luiz Lima</t>
+  </si>
+  <si>
+    <t>Major Fabiana</t>
+  </si>
+  <si>
+    <t>Márcio Labre</t>
+  </si>
+  <si>
+    <t>Pedro Paulo</t>
+  </si>
+  <si>
+    <t>Professor Joziel</t>
+  </si>
+  <si>
+    <t>Sóstenes Cavalcante</t>
+  </si>
+  <si>
+    <t>Vinicius Farah</t>
+  </si>
+  <si>
+    <t>Wladimir Garotinho</t>
+  </si>
+  <si>
+    <t>Alexandre Serfiotis</t>
+  </si>
+  <si>
+    <t>Chiquinho Brazão</t>
+  </si>
+  <si>
+    <t>Christino Auréo</t>
+  </si>
+  <si>
+    <t>Dr. Luiz Antonio Teixeira Jr.</t>
+  </si>
+  <si>
+    <t>Gelson Azevedo</t>
+  </si>
+  <si>
+    <t>Jorge Braz</t>
+  </si>
+  <si>
+    <t>Juninho do Pneu</t>
+  </si>
+  <si>
+    <t>Lourival Gomes</t>
+  </si>
+  <si>
+    <t>Luiz Antônio Corrêa</t>
+  </si>
+  <si>
+    <t>Marcão Gomes</t>
+  </si>
+  <si>
+    <t>Otoni de Paula</t>
+  </si>
+  <si>
+    <t>Paulo Ganime</t>
+  </si>
+  <si>
+    <t>Paulo Ramos</t>
+  </si>
+  <si>
+    <t>Rodrigo Maia</t>
+  </si>
+  <si>
+    <t>Rosangela Gomes</t>
+  </si>
+  <si>
+    <t>Soraya Santos</t>
+  </si>
+  <si>
+    <t>Benes Leocádio</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Beto Rosado</t>
+  </si>
+  <si>
+    <t>Carla Dickson</t>
+  </si>
+  <si>
+    <t>General Girão</t>
+  </si>
+  <si>
+    <t>João Maia</t>
+  </si>
+  <si>
+    <t>Natália Bonavides</t>
+  </si>
+  <si>
+    <t>Rafael Motta</t>
+  </si>
+  <si>
+    <t>Walter Alves</t>
+  </si>
+  <si>
+    <t>Bohn Gass</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Fernanda Melchionna</t>
+  </si>
+  <si>
+    <t>Henrique Fontana</t>
+  </si>
+  <si>
+    <t>Marcon</t>
+  </si>
+  <si>
+    <t>Maria do Rosário</t>
+  </si>
+  <si>
+    <t>Alceu Moreira</t>
+  </si>
+  <si>
+    <t>Bibo Nunes</t>
+  </si>
+  <si>
+    <t>Afonso Hamm</t>
+  </si>
+  <si>
+    <t>Afonso Motta</t>
+  </si>
+  <si>
+    <t>Carlos Gomes</t>
+  </si>
+  <si>
+    <t>Daniel Trzeciak</t>
+  </si>
+  <si>
+    <t>Danrlei de Deus Hinterholz</t>
+  </si>
+  <si>
+    <t>Giovani Cherini</t>
+  </si>
+  <si>
+    <t>Giovani Feltes</t>
+  </si>
+  <si>
+    <t>Heitor Schuch</t>
+  </si>
+  <si>
+    <t>Jerônimo Goergen</t>
+  </si>
+  <si>
+    <t>Liziane Bayer</t>
+  </si>
+  <si>
+    <t>Lucas Redecker</t>
+  </si>
+  <si>
+    <t>Marcel van Hattem</t>
+  </si>
+  <si>
+    <t>Marcelo Brum</t>
+  </si>
+  <si>
+    <t>Marcelo Moraes</t>
+  </si>
+  <si>
+    <t>Márcio Biolchi</t>
+  </si>
+  <si>
+    <t>Marlon Santos</t>
+  </si>
+  <si>
+    <t>Maurício Dziedricki</t>
+  </si>
+  <si>
+    <t>Nereu Crispim</t>
+  </si>
+  <si>
+    <t>Osmar Terra</t>
+  </si>
+  <si>
+    <t>Paulo Pimenta</t>
+  </si>
+  <si>
+    <t>Pedro Westphalen</t>
+  </si>
+  <si>
+    <t>Pompeo de Mattos</t>
+  </si>
+  <si>
+    <t>Sanderson</t>
+  </si>
+  <si>
+    <t>Santini</t>
+  </si>
+  <si>
+    <t>Edio Lopes</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Haroldo Cathedral</t>
+  </si>
+  <si>
+    <t>Hiran Gonçalves</t>
+  </si>
+  <si>
+    <t>Jhonatan de Jesus</t>
+  </si>
+  <si>
+    <t>Joenia Wapichana</t>
+  </si>
+  <si>
+    <t>REDE</t>
+  </si>
+  <si>
+    <t>Nicoletti</t>
+  </si>
+  <si>
+    <t>Ottaci Nascimento</t>
+  </si>
+  <si>
+    <t>Shéridan</t>
+  </si>
+  <si>
+    <t>Coronel Chrisóstomo</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>Expedito Netto</t>
+  </si>
+  <si>
+    <t>Jaqueline Cassol</t>
+  </si>
+  <si>
+    <t>Léo Moraes</t>
+  </si>
+  <si>
+    <t>Lucio Mosquini</t>
+  </si>
+  <si>
+    <t>Mariana Carvalho</t>
+  </si>
+  <si>
+    <t>Mauro Nazif</t>
+  </si>
+  <si>
+    <t>Silvia Cristina</t>
+  </si>
+  <si>
+    <t>Pedro Uczai</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Angela Amin</t>
+  </si>
+  <si>
+    <t>Carlos Chiodini</t>
+  </si>
+  <si>
+    <t>Carmen Zanotto</t>
+  </si>
+  <si>
+    <t>Caroline de Toni</t>
+  </si>
+  <si>
+    <t>Celso Maldaner</t>
+  </si>
+  <si>
+    <t>Coronel Armando</t>
+  </si>
+  <si>
+    <t>Daniel Freitas</t>
+  </si>
+  <si>
+    <t>Darci de Matos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabio Schiochet </t>
+  </si>
+  <si>
+    <t>Geovania de Sá</t>
+  </si>
+  <si>
+    <t>Gilson Marques</t>
+  </si>
+  <si>
+    <t>Hélio Costa</t>
+  </si>
+  <si>
+    <t>Ricardo Guidi</t>
+  </si>
+  <si>
+    <t>Rodrigo Coelho</t>
+  </si>
+  <si>
+    <t>Rogério Peninha Mendonça</t>
+  </si>
+  <si>
+    <t>Alencar Santana</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Alexandre Frota</t>
+  </si>
+  <si>
+    <t>Alexandre Padilha</t>
+  </si>
+  <si>
+    <t>Carlos Zarattini</t>
+  </si>
+  <si>
+    <t>Ivan Valente</t>
+  </si>
+  <si>
+    <t>Joice Hasselman</t>
+  </si>
+  <si>
+    <t>Bozzella</t>
+  </si>
+  <si>
+    <t>Kim Kataguiri</t>
+  </si>
+  <si>
+    <t>Luiza Erundina</t>
+  </si>
+  <si>
+    <t>Nilto Tatto</t>
+  </si>
+  <si>
+    <t>Paulo Teixeira</t>
+  </si>
+  <si>
+    <t>Rui Falcão</t>
+  </si>
+  <si>
+    <t>Sâmia Bomfim</t>
+  </si>
+  <si>
+    <t>Vicentinho</t>
+  </si>
+  <si>
+    <t>Baleia Rossi</t>
+  </si>
+  <si>
+    <t>Capitão Augusto</t>
+  </si>
+  <si>
+    <t>Carla Zambelli</t>
+  </si>
+  <si>
+    <t>Coronel Tadeu</t>
+  </si>
+  <si>
+    <t>Eduardo Bolsonaro</t>
+  </si>
+  <si>
+    <t>General Peternelli</t>
+  </si>
+  <si>
+    <t>Luiz Carlos Motta</t>
+  </si>
+  <si>
+    <t>Marco Bertaiolli</t>
+  </si>
+  <si>
+    <t>Marcos Pereira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milton Vieira </t>
+  </si>
+  <si>
+    <t>Pr. Marco Feliciano</t>
+  </si>
+  <si>
+    <t>Rosana Valle</t>
+  </si>
+  <si>
+    <t>Abou Anni</t>
+  </si>
+  <si>
+    <t>Adriana Ventura</t>
+  </si>
+  <si>
+    <t>Alex Manente</t>
+  </si>
+  <si>
+    <t>Alexandre Leite</t>
+  </si>
+  <si>
+    <t>Alexis Fonteyne</t>
+  </si>
+  <si>
+    <t>Arlindo Chinaglia</t>
+  </si>
+  <si>
+    <t>Arnaldo Jardim</t>
+  </si>
+  <si>
+    <t>Bruna Furlan</t>
+  </si>
+  <si>
+    <t>Carlos Sampaio</t>
+  </si>
+  <si>
+    <t>Celso Russomanno</t>
+  </si>
+  <si>
+    <t>Cezinha de Madureira</t>
+  </si>
+  <si>
+    <t>David Soares</t>
+  </si>
+  <si>
+    <t>Dr. Sinval Malheiros</t>
+  </si>
+  <si>
+    <t>Eduardo Cury</t>
+  </si>
+  <si>
+    <t>Eli Corrêa Filho</t>
+  </si>
+  <si>
+    <t>Enrico Misasi</t>
+  </si>
+  <si>
+    <t>Fausto Pinato</t>
+  </si>
+  <si>
+    <t>Geninho Zuliani</t>
+  </si>
+  <si>
+    <t>Gilberto Nascimento</t>
+  </si>
+  <si>
+    <t>Guiga Peixoto</t>
+  </si>
+  <si>
+    <t>Guilherme Derrite</t>
+  </si>
+  <si>
+    <t>Guilherme Mussi</t>
+  </si>
+  <si>
+    <t>Herculano Passos</t>
+  </si>
+  <si>
+    <t>Jefferson Campos</t>
+  </si>
+  <si>
+    <t>Luiz Philippe de Orleáns e Bragança</t>
+  </si>
+  <si>
+    <t>Marcio Alvino</t>
+  </si>
+  <si>
+    <t>Maria Rosas</t>
+  </si>
+  <si>
+    <t>Miguel Lombardi</t>
+  </si>
+  <si>
+    <t>Orlando Silva</t>
+  </si>
+  <si>
+    <t>Paulo Freire Costa</t>
+  </si>
+  <si>
+    <t>Paulo Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Policial Katia Sastre</t>
+  </si>
+  <si>
+    <t>Ricardo Izar</t>
+  </si>
+  <si>
+    <t>Ricardo Silva</t>
+  </si>
+  <si>
+    <t>Roberto Alves</t>
+  </si>
+  <si>
+    <t>Roberto de Lucena</t>
+  </si>
+  <si>
+    <t>Rodrigo Agostinho</t>
+  </si>
+  <si>
+    <t>Samuel Moreira</t>
+  </si>
+  <si>
+    <t>Tabata Amaral</t>
+  </si>
+  <si>
+    <t>Tiririca</t>
+  </si>
+  <si>
+    <t>Vanderlei Macris</t>
+  </si>
+  <si>
+    <t>Vinicius Carvalho</t>
+  </si>
+  <si>
+    <t>Vinicius Poit</t>
+  </si>
+  <si>
+    <t>Vitor Lippi</t>
+  </si>
+  <si>
+    <t>Bosco Costa</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Fábio Henrique</t>
+  </si>
+  <si>
+    <t>Fábio Mitidieri</t>
+  </si>
+  <si>
+    <t>Fabio Reis</t>
+  </si>
+  <si>
+    <t>Gustinho Ribeiro</t>
+  </si>
+  <si>
+    <t>João Daniel</t>
+  </si>
+  <si>
+    <t>Laercio Oliveira</t>
+  </si>
+  <si>
+    <t>Valdevan Noventa</t>
+  </si>
+  <si>
+    <t>Carlos Henrique Gaguim</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>Célio Moura</t>
+  </si>
+  <si>
+    <t>Dulce Miranda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eli Borges </t>
+  </si>
+  <si>
+    <t>Osires Damaso</t>
+  </si>
+  <si>
+    <t>Professora Dorinha Seabra Rezende</t>
+  </si>
+  <si>
+    <t>Tiago Dimas</t>
+  </si>
+  <si>
+    <t>Vicentinho Júnior</t>
+  </si>
+  <si>
+    <t>POSIÇÃO (a favor, contra, indiferente)</t>
+  </si>
+  <si>
+    <t>FONTE</t>
+  </si>
+  <si>
+    <t>indiferente</t>
+  </si>
+  <si>
+    <t>A FAVOR</t>
+  </si>
+  <si>
+    <t>https://pcdob.org.br/noticias/pcdob-protocola-pedido-coletivo-de-impeachment-de-bolsonaro/</t>
+  </si>
+  <si>
+    <t>Jão Henrique Caldas</t>
+  </si>
+  <si>
+    <t>Paulo Fernando dos Santos</t>
+  </si>
+  <si>
+    <t>https://d.gazetadealagoas.com.br/politica/274024/deputados-federais-silenciam-sobre-impeachment-de-bolsonaro</t>
+  </si>
+  <si>
+    <t>https://www.metropoles.com/jair-bolsonaro/psb-pede-impeachment-de-bolsonaro-por-atos-antidemocraticos</t>
+  </si>
+  <si>
+    <t>https://www.acritica.com/channels/cotidiano/news/bancada-do-am-nao-ve-clima-para-processo-de-impeachment-de-bolsonaro</t>
+  </si>
+  <si>
+    <t>https://revistaforum.com.br/movimentos/partidos-entidades-e-liderancas-lancam-frente-fora-bolsonaro-e-manifesto-para-pressionar-pelo-impeachment/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/?v=174913703910388</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DeputadoBacelar/status/1258077497553534976?s=20</t>
+  </si>
+  <si>
+    <t>https://renatorabelo.blog.br/2020/05/18/daniel-almeida-nao-faltam-fatores-tecnicos-para-justificar-o-impeachment/</t>
+  </si>
+  <si>
+    <t>João Antônio Holanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indiferente </t>
+  </si>
+  <si>
+    <t>Igor Kannaário</t>
+  </si>
+  <si>
+    <t>CONTRA</t>
+  </si>
+  <si>
+    <t>https://atarde.uol.com.br/politica/noticias/2127459-impeachment-de-bolsonaro-ainda-parece-improvavel-avaliam-deputados-baianos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/depjorgesolla/posts/3353681691318333</t>
+  </si>
+  <si>
+    <t>https://twitter.com/lidicedamata/status/1273360706994397187?s=20</t>
+  </si>
+  <si>
+    <t>André Figueredo</t>
+  </si>
+  <si>
+    <t>http://www.pdtnacamara.com.br/andre-figueiredo-fala-ao-jornal-o-povo-sobre-ato-virtual-pelo-impeachment-de-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Drdenisbezerra/posts/603586100363580</t>
+  </si>
+  <si>
+    <t>https://diariodonordeste.verdesmares.com.br/politica/liderancas-politicas-se-dividem-sobre-video-de-reuniao-ministerial-1.2248681</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/?v=1015706218812138</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ErikaKokay/photos/forabolsonaro-impeachmentbolsonaro-ministeriodasaude-sus-coronav%C3%ADrus/3377874335570430/</t>
+  </si>
+  <si>
+    <t>http://blogs.correiobraziliense.com.br/cbpoder/acima-de-eventuais-divergencias-politicas-esta-o-interesse-do-df-diz-flavia-arruda-nova-coordenadora-da-bancada-no-congresso/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/depjuliocesarribeiro/photos/a.373004342802652/2288725721230495/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/?v=549886435941375</t>
+  </si>
+  <si>
+    <t>https://jornaldebrasilia.com.br/cidades/exclusivo-nao-ha-condicoes-para-a-abertura-de-um-novo-processo-de-impeachment-diz-prof-israel/</t>
+  </si>
+  <si>
+    <t>Tadeu Filipelli</t>
+  </si>
+  <si>
+    <t>Josia Mario da Vitoria</t>
+  </si>
+  <si>
+    <t>https://www.moneytimes.com.br/sete-partidos-de-oposicao-apresentam-pedido-de-impeachment-de-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://www.emaisgoias.com.br/eu-ajudei-a-criar-um-monstro-diz-delegado-waldir-sobre-bolsonaro/</t>
+  </si>
+  <si>
+    <t>João Campos</t>
+  </si>
+  <si>
     <t>José Neto</t>
   </si>
   <si>
-    <t>Lucas Vergílio</t>
-  </si>
-  <si>
-    <t>Magda Mofatto</t>
-  </si>
-  <si>
-    <t>Professor Alcides</t>
-  </si>
-  <si>
-    <t>Rubens Otoni</t>
-  </si>
-  <si>
-    <t>Vitor Hugo</t>
-  </si>
-  <si>
-    <t>Aluisio Mendes</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>André Fufuca</t>
-  </si>
-  <si>
-    <t>Bira do Pindaré</t>
-  </si>
-  <si>
-    <t>Cleber Verde</t>
-  </si>
-  <si>
-    <t>Pedro Lucas Fernandes</t>
-  </si>
-  <si>
-    <t>Edilázio Júnior</t>
-  </si>
-  <si>
-    <t>Eduardo Braide</t>
-  </si>
-  <si>
-    <t>Gastão Vieira</t>
-  </si>
-  <si>
-    <t>Gil Cutrim</t>
-  </si>
-  <si>
-    <t>Gildenemyr</t>
-  </si>
-  <si>
-    <t>Hildo Rocha</t>
-  </si>
-  <si>
-    <t>João Marcelo Souza</t>
-  </si>
-  <si>
-    <t>Josimar Maranhãozinho</t>
-  </si>
-  <si>
-    <t>Junior Lourenço</t>
-  </si>
-  <si>
-    <t>Juscelino Filho</t>
-  </si>
-  <si>
-    <t>Márcio Jerry</t>
-  </si>
-  <si>
-    <t>PCDOB</t>
-  </si>
-  <si>
-    <t>Marreca Filho</t>
-  </si>
-  <si>
-    <t>PATRIOTA</t>
-  </si>
-  <si>
-    <t>Zé Carlos</t>
-  </si>
-  <si>
-    <t>Carlos Bezerra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDB </t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Dr. Leonardo</t>
-  </si>
-  <si>
-    <t>Emanuel Pinheiro Neto</t>
-  </si>
-  <si>
-    <t>José Medeiros</t>
-  </si>
-  <si>
-    <t>Juarez Costa</t>
-  </si>
-  <si>
-    <t>Nelson Barbudo</t>
-  </si>
-  <si>
-    <t>Neri Geller</t>
-  </si>
-  <si>
-    <t>Professora Rosa Neide</t>
-  </si>
-  <si>
-    <t>Valtenir Pereira</t>
-  </si>
-  <si>
-    <t>Beto Pereira</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Bia Cavassa</t>
-  </si>
-  <si>
-    <t>Dagoberto Nogueira</t>
-  </si>
-  <si>
-    <t>Dr. Luiz Ovando</t>
-  </si>
-  <si>
-    <t>Fábio Trad</t>
-  </si>
-  <si>
-    <t>Loester Trutis</t>
-  </si>
-  <si>
-    <t>Rose Modesto</t>
-  </si>
-  <si>
-    <t>Vander Loubet</t>
-  </si>
-  <si>
-    <t>Aécio Neves</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>Alê Silva</t>
-  </si>
-  <si>
-    <t>André Janones</t>
-  </si>
-  <si>
-    <t>Áurea Carolina</t>
-  </si>
-  <si>
-    <t>PSOL</t>
-  </si>
-  <si>
-    <t>Bilac Pinto</t>
-  </si>
-  <si>
-    <t>Charlles Evangelista</t>
-  </si>
-  <si>
-    <t>Delegado Marcelo Freitas</t>
-  </si>
-  <si>
-    <t>Diego Andrade</t>
-  </si>
-  <si>
-    <t>Dimas Fabiano</t>
-  </si>
-  <si>
-    <t>Domingos Sávio</t>
-  </si>
-  <si>
-    <t>Dr. Frederico</t>
-  </si>
-  <si>
-    <t>Eduardo Barbosa</t>
-  </si>
-  <si>
-    <t>Emidinho Madeira</t>
-  </si>
-  <si>
-    <t>Enéias Reis</t>
-  </si>
-  <si>
-    <t>Eros Biondini</t>
-  </si>
-  <si>
-    <t>Euclydes Pettersen</t>
-  </si>
-  <si>
-    <t>Fábio Ramalho</t>
-  </si>
-  <si>
-    <t>Franco Cartafina</t>
-  </si>
-  <si>
-    <t>Fred Costa</t>
-  </si>
-  <si>
-    <t>Gilberto Abramo</t>
-  </si>
-  <si>
-    <t>Greyce Elias</t>
-  </si>
-  <si>
-    <t>Hercílio Coelho Diniz</t>
-  </si>
-  <si>
-    <t>Igor Timo</t>
-  </si>
-  <si>
-    <t>Júlio Delgado</t>
-  </si>
-  <si>
-    <t>Junio Amaral</t>
-  </si>
-  <si>
-    <t>Lafayette de Andrada</t>
-  </si>
-  <si>
-    <t>Léo Motta</t>
-  </si>
-  <si>
-    <t>Leonardo Monteiro</t>
-  </si>
-  <si>
-    <t>Lincoln Portela</t>
-  </si>
-  <si>
-    <t>Lucas Gonzalez</t>
-  </si>
-  <si>
-    <t>NOVO</t>
-  </si>
-  <si>
-    <t>Luis Tibé</t>
-  </si>
-  <si>
-    <t>Marcelo Aro</t>
-  </si>
-  <si>
-    <t>Margarida Salomão</t>
-  </si>
-  <si>
-    <t>Mário Heringer</t>
-  </si>
-  <si>
-    <t>Mauro Lopes</t>
-  </si>
-  <si>
-    <t>Misael Varella</t>
-  </si>
-  <si>
-    <t>Newton Cardoso Jr</t>
-  </si>
-  <si>
-    <t>Odair Cunha</t>
-  </si>
-  <si>
-    <t>Padre João</t>
-  </si>
-  <si>
-    <t>Patrus Ananias</t>
-  </si>
-  <si>
-    <t>Paulo Abi-Ackel</t>
-  </si>
-  <si>
-    <t>Paulo Guedes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinheirinho </t>
-  </si>
-  <si>
-    <t>Reginaldo Lopes</t>
-  </si>
-  <si>
-    <t>Rodrigo de Castro</t>
+    <t>Solidariedade</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MajorVitorHugo/status/1252035527286685709?s=20</t>
+  </si>
+  <si>
+    <t>Aluisiu Mende</t>
+  </si>
+  <si>
+    <t>Ceber Verde</t>
+  </si>
+  <si>
+    <t>Gastão Viera</t>
+  </si>
+  <si>
+    <t>https://www.brasil247.com/regionais/nordeste/marcio-jerry-diz-que-impeachment-de-bolsonaro-e-necessidade-de-saude-publica</t>
+  </si>
+  <si>
+    <t>https://www.sonoticias.com.br/politica/bezerra-e-rosa-nedei-dizem-que-bolsonaro-desrespeita-constituicao-e-defendem-impeachment/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiferente </t>
+  </si>
+  <si>
+    <t>https://twitter.com/JoseMedeirosMT/status/1255688993653641217?s=20</t>
+  </si>
+  <si>
+    <t>http://www.diariodecuiaba.com.br/cuiaba-urgente/barbudo-defende-lider-supremo-e-fala-sobre-saida-de-moro/530683</t>
+  </si>
+  <si>
+    <t>https://www.leiaja.com/politica/2019/07/31/professor-protocola-pedido-de-impeachment-de-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://www.midiamax.com.br/politica/2020/defensor-de-bolsonaro-deputado-do-psl-posta-agradecimento-a-moro</t>
+  </si>
+  <si>
+    <t>https://vanderloubet.com.br/deputado/impeachment-de-bolsonaro-ja/</t>
+  </si>
+  <si>
+    <t>Charles Evangelista</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/charlles.evangelista/posts/2879310238801817/</t>
+  </si>
+  <si>
+    <t>Grayce Elias</t>
+  </si>
+  <si>
+    <t>https://www.otempo.com.br/politica/minas-na-esplanada/maioria-da-bancada-mineira-critica-saida-de-moro-e-interferencia-de-bolsonaro-1.2328824</t>
+  </si>
+  <si>
+    <t>https://twitter.com/lincoln_portela/status/1254887608653619200</t>
+  </si>
+  <si>
+    <t>https://jmonline.com.br/novo/?noticias,19,ALTERNATIVA,195907</t>
   </si>
   <si>
     <t>Rogério Correa</t>
   </si>
   <si>
-    <t>Stefano Aguiar</t>
-  </si>
-  <si>
-    <t>Subtenente Gonzaga</t>
-  </si>
-  <si>
-    <t>Tiago Mitraud</t>
+    <t>http://subtenentegonzaga.com.br/portal/sou-contra-o-pedido-de-impeachment/</t>
   </si>
   <si>
     <t>Vilson da FATAEMG</t>
   </si>
   <si>
-    <t>Weliton Prado</t>
-  </si>
-  <si>
-    <t>Zé Silva</t>
-  </si>
-  <si>
-    <t>Zé Vitor</t>
-  </si>
-  <si>
-    <t>Airton Faleiro</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>Beto Fato</t>
   </si>
   <si>
-    <t>Cássio Andrade</t>
-  </si>
-  <si>
-    <t>Celso Sabino</t>
-  </si>
-  <si>
-    <t>Cristiano Vale</t>
-  </si>
-  <si>
-    <t>Delegado Éder Mauro</t>
-  </si>
-  <si>
-    <t>Edmilson Rodrigues</t>
-  </si>
-  <si>
-    <t>Eduardo Costa</t>
-  </si>
-  <si>
-    <t>Elcione Barbalho</t>
-  </si>
-  <si>
-    <t>Hélio Leite</t>
-  </si>
-  <si>
-    <t>Joaquim Passarinho</t>
-  </si>
-  <si>
-    <t>José Priante</t>
-  </si>
-  <si>
-    <t>Júnior Ferrari</t>
-  </si>
-  <si>
-    <t>Nilson Pinto</t>
-  </si>
-  <si>
-    <t>Olival Marques</t>
-  </si>
-  <si>
-    <t>Paulo Bengtson</t>
-  </si>
-  <si>
-    <t>Vavá Martins</t>
-  </si>
-  <si>
-    <t>Aguinaldo Ribeiro</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>Damião Feliciano</t>
-  </si>
-  <si>
-    <t>Edna Henrique</t>
-  </si>
-  <si>
-    <t>Efraim Filho</t>
-  </si>
-  <si>
-    <t>Frei Anastácio</t>
-  </si>
-  <si>
-    <t>Gervásio Maia</t>
-  </si>
-  <si>
-    <t>Hugo Motta</t>
-  </si>
-  <si>
-    <t>Julian Lemos</t>
-  </si>
-  <si>
-    <t>Pedro Cunha Lima</t>
-  </si>
-  <si>
-    <t>Ruy Carneiro</t>
-  </si>
-  <si>
-    <t>Wellington Roberto</t>
-  </si>
-  <si>
-    <t>Wilson Santiago</t>
-  </si>
-  <si>
-    <t>Aliel Machado</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Aline Sleutjes</t>
-  </si>
-  <si>
-    <t>Aroldo Martins</t>
-  </si>
-  <si>
-    <t>Boca Aberta</t>
-  </si>
-  <si>
-    <t>Christiane de Souza Yared</t>
-  </si>
-  <si>
-    <t>Diego Garcia</t>
-  </si>
-  <si>
-    <t>Enio Verri</t>
-  </si>
-  <si>
-    <t>Felipe Francischini</t>
-  </si>
-  <si>
-    <t>Filipe Barros</t>
-  </si>
-  <si>
-    <t>Giacobo</t>
-  </si>
-  <si>
-    <t>Gleisi Hoffmann</t>
-  </si>
-  <si>
-    <t>Gustavo Fruet</t>
-  </si>
-  <si>
-    <t>Hermes Parcianello</t>
-  </si>
-  <si>
-    <t>Leandre</t>
-  </si>
-  <si>
-    <t>Luciano Ducci</t>
-  </si>
-  <si>
-    <t>Luisa Canziani</t>
-  </si>
-  <si>
-    <t>Luiz Nishimori</t>
-  </si>
-  <si>
-    <t>Ney Leprevost</t>
-  </si>
-  <si>
-    <t>Paulo Eduardo Martins</t>
-  </si>
-  <si>
-    <t>Pedro Lupion</t>
-  </si>
-  <si>
-    <t>Ricardo Barros</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>PATRIOTRA</t>
-  </si>
-  <si>
-    <t>Rubens Bueno</t>
-  </si>
-  <si>
-    <t>Sargento Fahur</t>
-  </si>
-  <si>
-    <t>Schiavinato</t>
-  </si>
-  <si>
-    <t>Sergio Souza</t>
-  </si>
-  <si>
-    <t>Toninho Wandscheer</t>
-  </si>
-  <si>
-    <t>Vermelho</t>
-  </si>
-  <si>
-    <t>Zeca Dirceu</t>
-  </si>
-  <si>
-    <t>Carlos Veras</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>Danilo Cabral</t>
-  </si>
-  <si>
-    <t>Gonzaga Patriota</t>
-  </si>
-  <si>
-    <t>Marília Arraes</t>
-  </si>
-  <si>
-    <t>Renildo Calheiros</t>
-  </si>
-  <si>
-    <t>Tadeu Alencar</t>
-  </si>
-  <si>
-    <t>Túlio Gadêlha</t>
-  </si>
-  <si>
-    <t>Wolney Queiroz</t>
-  </si>
-  <si>
-    <t>Daniel Coelho</t>
-  </si>
-  <si>
-    <t>Silvio Costa Filho</t>
-  </si>
-  <si>
-    <t>André de Paula</t>
-  </si>
-  <si>
-    <t>André Ferreira</t>
-  </si>
-  <si>
-    <t>Augusto Coutinho</t>
-  </si>
-  <si>
-    <t>Eduardo da Fonte</t>
-  </si>
-  <si>
-    <t>Felipe Carreras</t>
-  </si>
-  <si>
-    <t>Fernando Coelho Filho</t>
-  </si>
-  <si>
-    <t>Fernando Monteiro</t>
-  </si>
-  <si>
-    <t>Fernando Rodolfo</t>
-  </si>
-  <si>
-    <t>Luciano Bivar</t>
-  </si>
-  <si>
-    <t>Ossesio Silva</t>
-  </si>
-  <si>
-    <t>Pastor Eurico</t>
-  </si>
-  <si>
-    <t>Raul Henry</t>
-  </si>
-  <si>
-    <t>Ricardo Teobaldo</t>
-  </si>
-  <si>
-    <t>Sebastião Oliveira</t>
-  </si>
-  <si>
-    <t>Assis Carvalho</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>Flávio Nogueira</t>
-  </si>
-  <si>
-    <t>Rejane Dias</t>
-  </si>
-  <si>
-    <t>Átila Lira</t>
-  </si>
-  <si>
-    <t>Capitão Fábio Abreu</t>
-  </si>
-  <si>
-    <t>Iracema Portella</t>
-  </si>
-  <si>
-    <t>Júlio Cesar</t>
-  </si>
-  <si>
-    <t>Marcos Aurélio Sampaio</t>
-  </si>
-  <si>
-    <t>Margarete Coelho</t>
-  </si>
-  <si>
-    <t>Marina Santos</t>
-  </si>
-  <si>
-    <t>Alessandro Molon</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>Benedita da Silva</t>
-  </si>
-  <si>
-    <t>Chico d'Ângelo</t>
-  </si>
-  <si>
-    <t>David Miranda</t>
-  </si>
-  <si>
-    <t>Glauber Braga</t>
-  </si>
-  <si>
-    <t>Jandira Feghali</t>
-  </si>
-  <si>
-    <t>Marcelo Calero</t>
-  </si>
-  <si>
-    <t>Marcelo Freixo</t>
-  </si>
-  <si>
-    <t>Talíria Petrone</t>
-  </si>
-  <si>
-    <t>Áureo Ribeiro</t>
-  </si>
-  <si>
-    <t>Carlos Jordy</t>
-  </si>
-  <si>
-    <t>Chris Tonietto</t>
-  </si>
-  <si>
-    <t>Clarissa Garotinho</t>
-  </si>
-  <si>
-    <t>Daniel Silveira</t>
-  </si>
-  <si>
-    <t>Daniela do Waguinho</t>
-  </si>
-  <si>
-    <t>Delegado Antônio Furtado</t>
-  </si>
-  <si>
-    <t>Felício Laterça</t>
-  </si>
-  <si>
-    <t>Flordelis</t>
-  </si>
-  <si>
-    <t>Gurgel</t>
-  </si>
-  <si>
-    <t>Gutemberg Reis</t>
-  </si>
-  <si>
-    <t>Helio Lopes</t>
-  </si>
-  <si>
-    <t>Hugo Leal</t>
-  </si>
-  <si>
-    <t>Luiz Lima</t>
-  </si>
-  <si>
-    <t>Major Fabiana</t>
-  </si>
-  <si>
-    <t>Márcio Labre</t>
-  </si>
-  <si>
-    <t>Pedro Paulo</t>
-  </si>
-  <si>
-    <t>Professor Joziel</t>
-  </si>
-  <si>
-    <t>Sóstenes Cavalcante</t>
-  </si>
-  <si>
-    <t>Vinicius Farah</t>
-  </si>
-  <si>
-    <t>Wladimir Garotinho</t>
-  </si>
-  <si>
-    <t>Alexandre Serfiotis</t>
-  </si>
-  <si>
-    <t>Chiquinho Brazão</t>
-  </si>
-  <si>
-    <t>Christino Auréo</t>
-  </si>
-  <si>
-    <t>Dr. Luiz Antonio Teixeira Jr.</t>
-  </si>
-  <si>
-    <t>Gelson Azevedo</t>
-  </si>
-  <si>
-    <t>Jorge Braz</t>
-  </si>
-  <si>
-    <t>Juninho do Pneu</t>
-  </si>
-  <si>
-    <t>Lourival Gomes</t>
-  </si>
-  <si>
-    <t>Luiz Antônio Corrêa</t>
-  </si>
-  <si>
-    <t>Marcão Gomes</t>
-  </si>
-  <si>
-    <t>Otoni de Paula</t>
-  </si>
-  <si>
-    <t>Paulo Ganime</t>
-  </si>
-  <si>
-    <t>Paulo Ramos</t>
-  </si>
-  <si>
-    <t>Rodrigo Maia</t>
-  </si>
-  <si>
-    <t>Rosangela Gomes</t>
-  </si>
-  <si>
-    <t>Soraya Santos</t>
-  </si>
-  <si>
-    <t>Benes Leocádio</t>
-  </si>
-  <si>
-    <t>RN</t>
-  </si>
-  <si>
-    <t>Beto Rosado</t>
-  </si>
-  <si>
-    <t>Carla Dickson</t>
-  </si>
-  <si>
-    <t>General Girão</t>
-  </si>
-  <si>
-    <t>João Maia</t>
-  </si>
-  <si>
-    <t>Natália Bonavides</t>
-  </si>
-  <si>
-    <t>Rafael Motta</t>
-  </si>
-  <si>
-    <t>Walter Alves</t>
-  </si>
-  <si>
-    <t>Bohn Gass</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>Fernanda Melchionna</t>
-  </si>
-  <si>
-    <t>Henrique Fontana</t>
-  </si>
-  <si>
-    <t>Marcon</t>
-  </si>
-  <si>
-    <t>Maria do Rosário</t>
-  </si>
-  <si>
-    <t>Alceu Moreira</t>
-  </si>
-  <si>
-    <t>Bibo Nunes</t>
-  </si>
-  <si>
-    <t>Afonso Hamm</t>
-  </si>
-  <si>
-    <t>Afonso Motta</t>
-  </si>
-  <si>
-    <t>Carlos Gomes</t>
-  </si>
-  <si>
-    <t>Daniel Trzeciak</t>
-  </si>
-  <si>
-    <t>Danrlei de Deus Hinterholz</t>
-  </si>
-  <si>
-    <t>Giovani Cherini</t>
-  </si>
-  <si>
-    <t>Giovani Feltes</t>
-  </si>
-  <si>
-    <t>Heitor Schuch</t>
-  </si>
-  <si>
-    <t>Jerônimo Goergen</t>
-  </si>
-  <si>
-    <t>Liziane Bayer</t>
-  </si>
-  <si>
-    <t>Lucas Redecker</t>
-  </si>
-  <si>
-    <t>Marcel van Hattem</t>
-  </si>
-  <si>
-    <t>Marcelo Brum</t>
-  </si>
-  <si>
-    <t>Marcelo Moraes</t>
-  </si>
-  <si>
-    <t>Márcio Biolchi</t>
-  </si>
-  <si>
-    <t>Marlon Santos</t>
-  </si>
-  <si>
-    <t>Maurício Dziedricki</t>
-  </si>
-  <si>
-    <t>Nereu Crispim</t>
-  </si>
-  <si>
-    <t>Osmar Terra</t>
-  </si>
-  <si>
-    <t>Paulo Pimenta</t>
-  </si>
-  <si>
-    <t>Pedro Westphalen</t>
-  </si>
-  <si>
-    <t>Pompeo de Mattos</t>
-  </si>
-  <si>
-    <t>Sanderson</t>
-  </si>
-  <si>
-    <t>Santini</t>
-  </si>
-  <si>
-    <t>Edio Lopes</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>Haroldo Cathedral</t>
-  </si>
-  <si>
-    <t>Hiran Gonçalves</t>
-  </si>
-  <si>
-    <t>Jhonatan de Jesus</t>
-  </si>
-  <si>
-    <t>Joenia Wapichana</t>
-  </si>
-  <si>
-    <t>REDE</t>
-  </si>
-  <si>
-    <t>Nicoletti</t>
-  </si>
-  <si>
-    <t>Ottaci Nascimento</t>
-  </si>
-  <si>
-    <t>Shéridan</t>
-  </si>
-  <si>
-    <t>Coronel Chrisóstomo</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>Expedito Netto</t>
-  </si>
-  <si>
-    <t>Jaqueline Cassol</t>
-  </si>
-  <si>
-    <t>Léo Moraes</t>
-  </si>
-  <si>
-    <t>Lucio Mosquini</t>
-  </si>
-  <si>
-    <t>Mariana Carvalho</t>
-  </si>
-  <si>
-    <t>Mauro Nazif</t>
-  </si>
-  <si>
-    <t>Silvia Cristina</t>
-  </si>
-  <si>
-    <t>Pedro Uczai</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Angela Amin</t>
-  </si>
-  <si>
-    <t>Carlos Chiodini</t>
-  </si>
-  <si>
-    <t>Carmen Zanotto</t>
-  </si>
-  <si>
-    <t>Caroline de Toni</t>
-  </si>
-  <si>
-    <t>Celso Maldaner</t>
-  </si>
-  <si>
-    <t>Coronel Armando</t>
-  </si>
-  <si>
-    <t>Daniel Freitas</t>
-  </si>
-  <si>
-    <t>Darci de Matos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabio Schiochet </t>
-  </si>
-  <si>
-    <t>Geovania de Sá</t>
-  </si>
-  <si>
-    <t>Gilson Marques</t>
-  </si>
-  <si>
-    <t>Hélio Costa</t>
-  </si>
-  <si>
-    <t>Ricardo Guidi</t>
-  </si>
-  <si>
-    <t>Rodrigo Coelho</t>
-  </si>
-  <si>
-    <t>Rogério Peninha Mendonça</t>
-  </si>
-  <si>
-    <t>Alencar Santana</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>Alexandre Frota</t>
-  </si>
-  <si>
-    <t>Alexandre Padilha</t>
-  </si>
-  <si>
-    <t>Carlos Zarattini</t>
-  </si>
-  <si>
-    <t>Ivan Valente</t>
-  </si>
-  <si>
-    <t>Joice Hasselman</t>
-  </si>
-  <si>
-    <t>Bozzella</t>
-  </si>
-  <si>
-    <t>Kim Kataguiri</t>
-  </si>
-  <si>
-    <t>Luiza Erundina</t>
-  </si>
-  <si>
-    <t>Nilto Tatto</t>
-  </si>
-  <si>
-    <t>Paulo Teixeira</t>
-  </si>
-  <si>
-    <t>Rui Falcão</t>
+    <t>Olivar Marques</t>
+  </si>
+  <si>
+    <t>Paulo Begtson</t>
+  </si>
+  <si>
+    <t>https://paraibaonline.com.br/2020/06/deputado-paraibano-comenta-sobre-ex-ministro-e-impeachment-de-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://www.freianastacio.com.br/frei-anastacio-apoia-manifesto-que-pede-impeachment-de-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://www.portaldiario.com.br/noticias/politica/472171/video-julian-lemos-avalia-que-bolsonaro-esta-sem-governabilidade-mas-diz-que-vota-contra-impeachment.html</t>
+  </si>
+  <si>
+    <t>https://paraibaonline.com.br/2020/04/presidente-do-psdb-diz-que-nao-e-hora-de-impeachment-nem-de-jogo-eleitoral-no-pais/</t>
+  </si>
+  <si>
+    <t>https://www.polemicaparaiba.com.br/paraiba/wellington-roberto-se-posiciona-contra-impeachment-de-bolsonaro-o-pl-nao-defende-isso/</t>
+  </si>
+  <si>
+    <t>https://www.oantagonista.com/brasil/deputado-bolsonarista-sobre-eventual-processo-de-impeachment-o-povo-vai-para-as-ruas-o-povo-esta-do-lado-do-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/paulomartins10/status/1254810107852001281</t>
+  </si>
+  <si>
+    <t>https://pcdob.org.br/noticias/cpi-e-peca-chave-para-formar-maioria-pelo-impeachment-de-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/watch/live/?v=845945849147582&amp;ref=watch_permalink</t>
+  </si>
+  <si>
+    <t>https://www.camara.leg.br/noticias/656041-oposicao-critica-participacao-de-bolsonaro-em-ato-contra-democracia-pdt-pede-impeachment/</t>
+  </si>
+  <si>
+    <t>https://jc.ne10.uol.com.br/politica/2020/06/5612645-decisao-do-pt-sobre-frente-de-oposicao-a-bolsonaro-divide-opinioes-no-psb.html</t>
+  </si>
+  <si>
+    <t>https://www.folhape.com.br/colunistas/blogdafolha/silvio-costa-filho-sobre-impeachment-stf-e-quem-esta-com-a-bola/15688/</t>
+  </si>
+  <si>
+    <t>Fernandoo Rodolfo</t>
+  </si>
+  <si>
+    <t>Ossessio Silva</t>
+  </si>
+  <si>
+    <t>https://www.portalodia.com/noticias/politica/flavio-nogueira-diz-que-nao-ha-clima-para-abertura-de-impeachment-376566.html</t>
+  </si>
+  <si>
+    <t>https://pensarpiaui.com/noticia/rejane-quase-impossivel-que-estados-e-municipios-deem-conta-sozinhos-das-demandas.html</t>
+  </si>
+  <si>
+    <t>Marco Aurélio Sampaio</t>
+  </si>
+  <si>
+    <t>https://odia.ig.com.br/brasil/2020/05/5909686-deputados-federais-do-rio-se-posicionam-sobre-possivel-impeachment-de-bolsonaro.html</t>
+  </si>
+  <si>
+    <t>Chico D’Angelo</t>
+  </si>
+  <si>
+    <t>Floderlis</t>
+  </si>
+  <si>
+    <t>Guttemberg Reis</t>
+  </si>
+  <si>
+    <t>Joge Braz</t>
+  </si>
+  <si>
+    <t>https://grupoahora.net.br/conteudos/2020/04/27/alceu-moreira-nao-acredita-em-prosseguimento-de-processos-de-impeachment-contra-bolsonaro/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dUc2iFvL-E</t>
+  </si>
+  <si>
+    <t>Pompeu de Mattos</t>
+  </si>
+  <si>
+    <t>https://www12.senado.leg.br/noticias/materias/2020/04/24/randolfe-e-contarato-apresentam-a-camara-pedido-de-impeachment-de-bolsonaro</t>
+  </si>
+  <si>
+    <t>https://epoca.globo.com/guilherme-amado/psb-apresenta-projeto-para-dar-30-dias-maia-para-decidir-sobre-impeachment-1-24411163</t>
+  </si>
+  <si>
+    <t>https://valor.globo.com/politica/noticia/2020/03/19/alexandre-frota-protocola-pedido-de-impeachment-contra-bolsonaro.ghtml</t>
+  </si>
+  <si>
+    <t>https://noticias.uol.com.br/colunas/constanca-rezende/2020/04/24/psl-vai-pedir-impeachment-de-bolsonaro-na-camara.htm</t>
+  </si>
+  <si>
+    <t>Júnior Bozella</t>
+  </si>
+  <si>
+    <t>https://www.cnnbrasil.com.br/politica/2020/05/12/ex-governistas-lancam-grupo-anti-bolsonaro-e-miram-impeachment</t>
+  </si>
+  <si>
+    <t>https://www.correiobraziliense.com.br/app/noticia/politica/2020/04/27/interna_politica,848936/lider-do-mbl-kim-kataguiri-protocola-pedido-de-impeachment-de-bolsona.shtml</t>
   </si>
   <si>
     <t>Sâmia Bonfim</t>
-  </si>
-  <si>
-    <t>Vicentinho</t>
-  </si>
-  <si>
-    <t>Baleia Rossi</t>
-  </si>
-  <si>
-    <t>Capitão Augusto</t>
-  </si>
-  <si>
-    <t>Carla Zambelli</t>
-  </si>
-  <si>
-    <t>Coronel Tadeu</t>
-  </si>
-  <si>
-    <t>Eduardo Bolsonaro</t>
-  </si>
-  <si>
-    <t>General Peternelli</t>
-  </si>
-  <si>
-    <t>Luiz Carlos Motta</t>
-  </si>
-  <si>
-    <t>Marco Bertaiolli</t>
-  </si>
-  <si>
-    <t>Marcos Pereira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milton Vieira </t>
-  </si>
-  <si>
-    <t>Pr. Marco Feliciano</t>
-  </si>
-  <si>
-    <t>Rosana Valle</t>
-  </si>
-  <si>
-    <t>Abou Anni</t>
-  </si>
-  <si>
-    <t>Adriana Ventura</t>
-  </si>
-  <si>
-    <t>Alex Manente</t>
-  </si>
-  <si>
-    <t>Alexandre Leite</t>
-  </si>
-  <si>
-    <t>Alexis Fonteyne</t>
-  </si>
-  <si>
-    <t>Arlindo Chinaglia</t>
-  </si>
-  <si>
-    <t>Arnaldo Jardim</t>
-  </si>
-  <si>
-    <t>Bruna Furlan</t>
-  </si>
-  <si>
-    <t>Carlos Sampaio</t>
-  </si>
-  <si>
-    <t>Celso Russomanno</t>
-  </si>
-  <si>
-    <t>Cezinha de Madureira</t>
-  </si>
-  <si>
-    <t>David Soares</t>
-  </si>
-  <si>
-    <t>Dr. Sinval Malheiros</t>
-  </si>
-  <si>
-    <t>Eduardo Cury</t>
-  </si>
-  <si>
-    <t>Eli Corrêa Filho</t>
-  </si>
-  <si>
-    <t>Enrico Misasi</t>
-  </si>
-  <si>
-    <t>Fausto Pinato</t>
-  </si>
-  <si>
-    <t>Geninho Zuliani</t>
-  </si>
-  <si>
-    <t>Gilberto Nascimento</t>
-  </si>
-  <si>
-    <t>Guiga Peixoto</t>
-  </si>
-  <si>
-    <t>Guilherme Derrite</t>
-  </si>
-  <si>
-    <t>Guilherme Mussi</t>
-  </si>
-  <si>
-    <t>Herculano Passos</t>
-  </si>
-  <si>
-    <t>Jefferson Campos</t>
-  </si>
-  <si>
-    <t>Luiz Philippe de Orleáns e Bragança</t>
-  </si>
-  <si>
-    <t>Marcio Alvino</t>
-  </si>
-  <si>
-    <t>Maria Rosas</t>
-  </si>
-  <si>
-    <t>Miguel Lombardi</t>
-  </si>
-  <si>
-    <t>Orlando Silva</t>
-  </si>
-  <si>
-    <t>Paulo Freire Costa</t>
-  </si>
-  <si>
-    <t>Paulo Pereira da Silva</t>
-  </si>
-  <si>
-    <t>Policial Katia Sastre</t>
-  </si>
-  <si>
-    <t>Ricardo Izar</t>
-  </si>
-  <si>
-    <t>Ricardo Silva</t>
-  </si>
-  <si>
-    <t>Roberto Alves</t>
-  </si>
-  <si>
-    <t>Roberto de Lucena</t>
-  </si>
-  <si>
-    <t>Rodrigo Agostinho</t>
-  </si>
-  <si>
-    <t>Samuel Moreira</t>
-  </si>
-  <si>
-    <t>Tabata Amaral</t>
-  </si>
-  <si>
-    <t>Tiririca</t>
-  </si>
-  <si>
-    <t>Vanderlei Macris</t>
-  </si>
-  <si>
-    <t>Vinicius Carvalho</t>
-  </si>
-  <si>
-    <t>Vinicius Poit</t>
-  </si>
-  <si>
-    <t>Vitor Lippi</t>
-  </si>
-  <si>
-    <t>Bosco Costa</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>Fábio Henrique</t>
-  </si>
-  <si>
-    <t>Fábio Mitidieri</t>
-  </si>
-  <si>
-    <t>Fabio Reis</t>
-  </si>
-  <si>
-    <t>Gustinho Ribeiro</t>
-  </si>
-  <si>
-    <t>João Daniel</t>
-  </si>
-  <si>
-    <t>Laercio Oliveira</t>
-  </si>
-  <si>
-    <t>Valdevan Noventa</t>
-  </si>
-  <si>
-    <t>Carlos Henrique Gaguim</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>Célio Moura</t>
-  </si>
-  <si>
-    <t>Dulce Miranda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eli Borges </t>
-  </si>
-  <si>
-    <t>Osires Damaso</t>
-  </si>
-  <si>
-    <t>Professora Dorinha Seabra Rezende</t>
-  </si>
-  <si>
-    <t>Tiago Dimas</t>
-  </si>
-  <si>
-    <t>Vicentinho Júnior</t>
-  </si>
-  <si>
-    <t>POSIÇÃO (a favor, contra, indiferente)</t>
-  </si>
-  <si>
-    <t>FONTE</t>
-  </si>
-  <si>
-    <t>indiferente</t>
-  </si>
-  <si>
-    <t>A FAVOR</t>
-  </si>
-  <si>
-    <t>https://pcdob.org.br/noticias/pcdob-protocola-pedido-coletivo-de-impeachment-de-bolsonaro/</t>
-  </si>
-  <si>
-    <t>Jão Henrique Caldas</t>
-  </si>
-  <si>
-    <t>Paulo Fernando dos Santos</t>
-  </si>
-  <si>
-    <t>https://d.gazetadealagoas.com.br/politica/274024/deputados-federais-silenciam-sobre-impeachment-de-bolsonaro</t>
-  </si>
-  <si>
-    <t>https://www.metropoles.com/jair-bolsonaro/psb-pede-impeachment-de-bolsonaro-por-atos-antidemocraticos</t>
-  </si>
-  <si>
-    <t>https://www.acritica.com/channels/cotidiano/news/bancada-do-am-nao-ve-clima-para-processo-de-impeachment-de-bolsonaro</t>
-  </si>
-  <si>
-    <t>https://revistaforum.com.br/movimentos/partidos-entidades-e-liderancas-lancam-frente-fora-bolsonaro-e-manifesto-para-pressionar-pelo-impeachment/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/watch/?v=174913703910388</t>
-  </si>
-  <si>
-    <t>https://twitter.com/DeputadoBacelar/status/1258077497553534976?s=20</t>
-  </si>
-  <si>
-    <t>https://renatorabelo.blog.br/2020/05/18/daniel-almeida-nao-faltam-fatores-tecnicos-para-justificar-o-impeachment/</t>
-  </si>
-  <si>
-    <t>João Antônio Holanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indiferente </t>
-  </si>
-  <si>
-    <t>Igor Kannaário</t>
-  </si>
-  <si>
-    <t>CONTRA</t>
-  </si>
-  <si>
-    <t>https://atarde.uol.com.br/politica/noticias/2127459-impeachment-de-bolsonaro-ainda-parece-improvavel-avaliam-deputados-baianos</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/depjorgesolla/posts/3353681691318333</t>
-  </si>
-  <si>
-    <t>https://twitter.com/lidicedamata/status/1273360706994397187?s=20</t>
-  </si>
-  <si>
-    <t>André Figueredo</t>
-  </si>
-  <si>
-    <t>http://www.pdtnacamara.com.br/andre-figueiredo-fala-ao-jornal-o-povo-sobre-ato-virtual-pelo-impeachment-de-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Drdenisbezerra/posts/603586100363580</t>
-  </si>
-  <si>
-    <t>https://diariodonordeste.verdesmares.com.br/politica/liderancas-politicas-se-dividem-sobre-video-de-reuniao-ministerial-1.2248681</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/watch/?v=1015706218812138</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/ErikaKokay/photos/forabolsonaro-impeachmentbolsonaro-ministeriodasaude-sus-coronav%C3%ADrus/3377874335570430/</t>
-  </si>
-  <si>
-    <t>http://blogs.correiobraziliense.com.br/cbpoder/acima-de-eventuais-divergencias-politicas-esta-o-interesse-do-df-diz-flavia-arruda-nova-coordenadora-da-bancada-no-congresso/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/depjuliocesarribeiro/photos/a.373004342802652/2288725721230495/?type=3</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/watch/?v=549886435941375</t>
-  </si>
-  <si>
-    <t>https://jornaldebrasilia.com.br/cidades/exclusivo-nao-ha-condicoes-para-a-abertura-de-um-novo-processo-de-impeachment-diz-prof-israel/</t>
-  </si>
-  <si>
-    <t>Tadeu Filipelli</t>
-  </si>
-  <si>
-    <t>Josia Mario da Vitoria</t>
-  </si>
-  <si>
-    <t>https://www.moneytimes.com.br/sete-partidos-de-oposicao-apresentam-pedido-de-impeachment-de-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://www.emaisgoias.com.br/eu-ajudei-a-criar-um-monstro-diz-delegado-waldir-sobre-bolsonaro/</t>
-  </si>
-  <si>
-    <t>João Campos</t>
-  </si>
-  <si>
-    <t>Solidariedade</t>
-  </si>
-  <si>
-    <t>https://twitter.com/MajorVitorHugo/status/1252035527286685709?s=20</t>
-  </si>
-  <si>
-    <t>Aluisiu Mende</t>
-  </si>
-  <si>
-    <t>Ceber Verde</t>
-  </si>
-  <si>
-    <t>Gastão Viera</t>
-  </si>
-  <si>
-    <t>https://www.brasil247.com/regionais/nordeste/marcio-jerry-diz-que-impeachment-de-bolsonaro-e-necessidade-de-saude-publica</t>
-  </si>
-  <si>
-    <t>https://www.sonoticias.com.br/politica/bezerra-e-rosa-nedei-dizem-que-bolsonaro-desrespeita-constituicao-e-defendem-impeachment/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiferente </t>
-  </si>
-  <si>
-    <t>https://twitter.com/JoseMedeirosMT/status/1255688993653641217?s=20</t>
-  </si>
-  <si>
-    <t>http://www.diariodecuiaba.com.br/cuiaba-urgente/barbudo-defende-lider-supremo-e-fala-sobre-saida-de-moro/530683</t>
-  </si>
-  <si>
-    <t>https://www.leiaja.com/politica/2019/07/31/professor-protocola-pedido-de-impeachment-de-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://www.midiamax.com.br/politica/2020/defensor-de-bolsonaro-deputado-do-psl-posta-agradecimento-a-moro</t>
-  </si>
-  <si>
-    <t>https://vanderloubet.com.br/deputado/impeachment-de-bolsonaro-ja/</t>
-  </si>
-  <si>
-    <t>Charles Evangelista</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/charlles.evangelista/posts/2879310238801817/</t>
-  </si>
-  <si>
-    <t>Grayce Elias</t>
-  </si>
-  <si>
-    <t>https://www.otempo.com.br/politica/minas-na-esplanada/maioria-da-bancada-mineira-critica-saida-de-moro-e-interferencia-de-bolsonaro-1.2328824</t>
-  </si>
-  <si>
-    <t>https://twitter.com/lincoln_portela/status/1254887608653619200</t>
-  </si>
-  <si>
-    <t>https://jmonline.com.br/novo/?noticias,19,ALTERNATIVA,195907</t>
-  </si>
-  <si>
-    <t>http://subtenentegonzaga.com.br/portal/sou-contra-o-pedido-de-impeachment/</t>
-  </si>
-  <si>
-    <t>Olivar Marques</t>
-  </si>
-  <si>
-    <t>Paulo Begtson</t>
-  </si>
-  <si>
-    <t>https://paraibaonline.com.br/2020/06/deputado-paraibano-comenta-sobre-ex-ministro-e-impeachment-de-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://www.freianastacio.com.br/frei-anastacio-apoia-manifesto-que-pede-impeachment-de-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://www.portaldiario.com.br/noticias/politica/472171/video-julian-lemos-avalia-que-bolsonaro-esta-sem-governabilidade-mas-diz-que-vota-contra-impeachment.html</t>
-  </si>
-  <si>
-    <t>https://paraibaonline.com.br/2020/04/presidente-do-psdb-diz-que-nao-e-hora-de-impeachment-nem-de-jogo-eleitoral-no-pais/</t>
-  </si>
-  <si>
-    <t>https://www.polemicaparaiba.com.br/paraiba/wellington-roberto-se-posiciona-contra-impeachment-de-bolsonaro-o-pl-nao-defende-isso/</t>
-  </si>
-  <si>
-    <t>https://www.oantagonista.com/brasil/deputado-bolsonarista-sobre-eventual-processo-de-impeachment-o-povo-vai-para-as-ruas-o-povo-esta-do-lado-do-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://twitter.com/paulomartins10/status/1254810107852001281</t>
-  </si>
-  <si>
-    <t>https://pcdob.org.br/noticias/cpi-e-peca-chave-para-formar-maioria-pelo-impeachment-de-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/watch/live/?v=845945849147582&amp;ref=watch_permalink</t>
-  </si>
-  <si>
-    <t>https://www.camara.leg.br/noticias/656041-oposicao-critica-participacao-de-bolsonaro-em-ato-contra-democracia-pdt-pede-impeachment/</t>
-  </si>
-  <si>
-    <t>https://jc.ne10.uol.com.br/politica/2020/06/5612645-decisao-do-pt-sobre-frente-de-oposicao-a-bolsonaro-divide-opinioes-no-psb.html</t>
-  </si>
-  <si>
-    <t>https://www.folhape.com.br/colunistas/blogdafolha/silvio-costa-filho-sobre-impeachment-stf-e-quem-esta-com-a-bola/15688/</t>
-  </si>
-  <si>
-    <t>Fernandoo Rodolfo</t>
-  </si>
-  <si>
-    <t>Ossessio Silva</t>
-  </si>
-  <si>
-    <t>https://www.portalodia.com/noticias/politica/flavio-nogueira-diz-que-nao-ha-clima-para-abertura-de-impeachment-376566.html</t>
-  </si>
-  <si>
-    <t>https://pensarpiaui.com/noticia/rejane-quase-impossivel-que-estados-e-municipios-deem-conta-sozinhos-das-demandas.html</t>
-  </si>
-  <si>
-    <t>Marco Aurélio Sampaio</t>
-  </si>
-  <si>
-    <t>https://odia.ig.com.br/brasil/2020/05/5909686-deputados-federais-do-rio-se-posicionam-sobre-possivel-impeachment-de-bolsonaro.html</t>
-  </si>
-  <si>
-    <t>Chico D’Angelo</t>
-  </si>
-  <si>
-    <t>Floderlis</t>
-  </si>
-  <si>
-    <t>Guttemberg Reis</t>
-  </si>
-  <si>
-    <t>Joge Braz</t>
-  </si>
-  <si>
-    <t>https://grupoahora.net.br/conteudos/2020/04/27/alceu-moreira-nao-acredita-em-prosseguimento-de-processos-de-impeachment-contra-bolsonaro/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dUc2iFvL-E</t>
-  </si>
-  <si>
-    <t>Pompeu de Mattos</t>
-  </si>
-  <si>
-    <t>https://www12.senado.leg.br/noticias/materias/2020/04/24/randolfe-e-contarato-apresentam-a-camara-pedido-de-impeachment-de-bolsonaro</t>
-  </si>
-  <si>
-    <t>https://epoca.globo.com/guilherme-amado/psb-apresenta-projeto-para-dar-30-dias-maia-para-decidir-sobre-impeachment-1-24411163</t>
-  </si>
-  <si>
-    <t>https://valor.globo.com/politica/noticia/2020/03/19/alexandre-frota-protocola-pedido-de-impeachment-contra-bolsonaro.ghtml</t>
-  </si>
-  <si>
-    <t>https://noticias.uol.com.br/colunas/constanca-rezende/2020/04/24/psl-vai-pedir-impeachment-de-bolsonaro-na-camara.htm</t>
-  </si>
-  <si>
-    <t>Júnior Bozella</t>
-  </si>
-  <si>
-    <t>https://www.cnnbrasil.com.br/politica/2020/05/12/ex-governistas-lancam-grupo-anti-bolsonaro-e-miram-impeachment</t>
-  </si>
-  <si>
-    <t>https://www.correiobraziliense.com.br/app/noticia/politica/2020/04/27/interna_politica,848936/lider-do-mbl-kim-kataguiri-protocola-pedido-de-impeachment-de-bolsona.shtml</t>
   </si>
   <si>
     <t>https://noticias.uol.com.br/politica/ultimas-noticias/2020/06/15/presidente-do-mdb-desservico-impeachment.htm</t>
@@ -12922,7 +12937,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>166</v>
+        <v>616</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>71</v>
@@ -12936,7 +12951,7 @@
         <v>167</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>582</v>
@@ -12989,7 +13004,7 @@
         <v>597</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19">
@@ -13072,7 +13087,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>162</v>
@@ -13108,7 +13123,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>39</v>
@@ -13152,7 +13167,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>42</v>
@@ -13249,7 +13264,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18">
@@ -13357,7 +13372,7 @@
         <v>583</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3">
@@ -13379,7 +13394,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5">
@@ -13393,7 +13408,7 @@
         <v>597</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6">
@@ -13404,7 +13419,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7">
@@ -13418,7 +13433,7 @@
         <v>597</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8">
@@ -13429,7 +13444,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9">
@@ -13440,7 +13455,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10">
@@ -13451,7 +13466,7 @@
         <v>194</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11">
@@ -13582,7 +13597,7 @@
         <v>119</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5">
@@ -13618,7 +13633,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8">
@@ -13643,7 +13658,7 @@
         <v>119</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10">
@@ -13806,7 +13821,7 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>57</v>
@@ -13815,7 +13830,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8">
@@ -13974,7 +13989,7 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>48</v>
@@ -14041,7 +14056,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28">
@@ -14080,7 +14095,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31">
@@ -14174,7 +14189,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39">
@@ -14282,7 +14297,7 @@
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>261</v>
+        <v>636</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>35</v>
@@ -14316,7 +14331,7 @@
         <v>14</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50">
@@ -14332,7 +14347,7 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>265</v>
+        <v>638</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>29</v>
@@ -14445,7 +14460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>271</v>
+        <v>639</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>35</v>
@@ -14594,7 +14609,7 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>5</v>
@@ -14605,7 +14620,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>33</v>
@@ -14740,7 +14755,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6">
@@ -14754,7 +14769,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7">
@@ -14793,7 +14808,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10">
@@ -14818,7 +14833,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12">
@@ -14832,7 +14847,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13">
@@ -15041,7 +15056,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11">
@@ -15160,7 +15175,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21">
@@ -15396,7 +15411,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7">
@@ -15424,7 +15439,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9">
@@ -15438,7 +15453,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10">
@@ -15452,7 +15467,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11">
@@ -15466,7 +15481,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12">
@@ -15548,7 +15563,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>37</v>
@@ -15581,7 +15596,7 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>39</v>
@@ -15714,7 +15729,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4">
@@ -15728,7 +15743,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5">
@@ -15777,7 +15792,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -16114,12 +16129,12 @@
         <v>13</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>17</v>
@@ -16128,7 +16143,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5">
@@ -16142,7 +16157,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6">
@@ -16156,7 +16171,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7">
@@ -16170,7 +16185,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8">
@@ -16184,7 +16199,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9">
@@ -16198,7 +16213,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10">
@@ -16212,7 +16227,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11">
@@ -16226,7 +16241,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12">
@@ -16240,7 +16255,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13">
@@ -16254,7 +16269,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14">
@@ -16268,7 +16283,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15">
@@ -16282,7 +16297,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16">
@@ -16296,7 +16311,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17">
@@ -16310,7 +16325,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="18">
@@ -16324,12 +16339,12 @@
         <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>31</v>
@@ -16338,7 +16353,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20">
@@ -16352,12 +16367,12 @@
         <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
@@ -16366,7 +16381,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22">
@@ -16380,7 +16395,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23">
@@ -16394,7 +16409,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24">
@@ -16408,7 +16423,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25">
@@ -16422,7 +16437,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26">
@@ -16436,7 +16451,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27">
@@ -16450,7 +16465,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28">
@@ -16464,7 +16479,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29">
@@ -16478,7 +16493,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30">
@@ -16492,7 +16507,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31">
@@ -16506,7 +16521,7 @@
         <v>14</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32">
@@ -16520,7 +16535,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33">
@@ -16534,7 +16549,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34">
@@ -16548,7 +16563,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="35">
@@ -16562,7 +16577,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36">
@@ -16576,12 +16591,12 @@
         <v>6</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>39</v>
@@ -16590,7 +16605,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38">
@@ -16604,7 +16619,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39">
@@ -16618,7 +16633,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="40">
@@ -16632,7 +16647,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="41">
@@ -16646,7 +16661,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42">
@@ -16660,7 +16675,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43">
@@ -16674,7 +16689,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44">
@@ -16688,7 +16703,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="45">
@@ -16702,7 +16717,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46">
@@ -16716,7 +16731,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47">
@@ -16730,7 +16745,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -17087,7 +17102,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8">
@@ -17101,7 +17116,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9">
@@ -17337,7 +17352,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>17</v>
@@ -17465,7 +17480,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7">
@@ -17674,7 +17689,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9">
@@ -18062,7 +18077,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4">
@@ -18118,12 +18133,12 @@
         <v>13</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>57</v>
@@ -18132,7 +18147,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9">
@@ -18146,7 +18161,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10">
@@ -18207,7 +18222,7 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>504</v>
+        <v>674</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>218</v>
@@ -18244,7 +18259,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17">
@@ -18258,7 +18273,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18">
@@ -18272,7 +18287,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19">
@@ -18286,7 +18301,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20">
@@ -18300,12 +18315,12 @@
         <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>57</v>
@@ -18314,7 +18329,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22">
@@ -18328,7 +18343,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23">
@@ -18342,7 +18357,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24">
@@ -18356,7 +18371,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="25">
@@ -18370,7 +18385,7 @@
         <v>14</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26">
@@ -18384,7 +18399,7 @@
         <v>14</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27">
@@ -18398,7 +18413,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="28">
@@ -18502,7 +18517,7 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>39</v>
@@ -18535,7 +18550,7 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>71</v>
@@ -18667,7 +18682,7 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>57</v>
@@ -18720,7 +18735,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57">
@@ -18939,7 +18954,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -18973,7 +18988,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4">
@@ -18987,7 +19002,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5">
@@ -19196,7 +19211,7 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>162</v>

--- a/data/Pesquisa.xlsx
+++ b/data/Pesquisa.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4403" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="1217">
   <si>
     <t>DEPUTADO</t>
   </si>
@@ -3360,6 +3360,9 @@
     <t xml:space="preserve">indiferente </t>
   </si>
   <si>
+    <t>http://www.bahiasemfronteiras.com.br/2020/05/felix-mendonca-jr-cobra-impeachment-de-bolsonaro-na-contramao-de-todos-os-estudos-cientificos/</t>
+  </si>
+  <si>
     <t>Igor Kannaário</t>
   </si>
   <si>
@@ -3373,6 +3376,9 @@
   </si>
   <si>
     <t>https://twitter.com/lidicedamata/status/1273360706994397187?s=20</t>
+  </si>
+  <si>
+    <t>http://www.bahianapolitica.com.br/noticias/89809/marcelo-nilo-assina-pedido-de-impeachment-de-jair-bolsonaro.html</t>
   </si>
   <si>
     <t>André Figueredo</t>
@@ -3755,13 +3761,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
     </font>
     <font>
       <b/>
@@ -3907,10 +3913,10 @@
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4351,11 +4357,11 @@
       </c>
       <c r="F5" s="4">
         <f>COUNTIF(C2:C514, "*A Favor*")</f>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="4">
         <f>COUNTIF(C2:C514, "*Indiferente*")</f>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H5" s="4">
         <f>COUNTIF(C2:C514, "*Contra*")</f>
@@ -5106,7 +5112,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>96</v>
@@ -5276,7 +5282,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>96</v>
@@ -16520,7 +16526,7 @@
         <v>263</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>1089</v>
@@ -16548,7 +16554,7 @@
         <v>1090</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6">
@@ -16619,7 +16625,7 @@
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>111</v>
@@ -16683,10 +16689,10 @@
         <v>66</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18">
@@ -16777,7 +16783,7 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>279</v>
@@ -16813,7 +16819,7 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>1096</v>
@@ -16857,7 +16863,7 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>77</v>
@@ -16948,13 +16954,13 @@
         <v>326</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="18">
@@ -16962,7 +16968,7 @@
         <v>328</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>7</v>
@@ -17056,13 +17062,13 @@
         <v>460</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>1090</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3">
@@ -17084,7 +17090,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5">
@@ -17095,10 +17101,10 @@
         <v>111</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="6">
@@ -17106,10 +17112,10 @@
         <v>469</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7">
@@ -17120,10 +17126,10 @@
         <v>66</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="8">
@@ -17134,7 +17140,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="9">
@@ -17145,7 +17151,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10">
@@ -17276,10 +17282,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5">
@@ -17315,7 +17321,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="8">
@@ -17337,10 +17343,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="10">
@@ -17503,7 +17509,7 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>66</v>
@@ -17512,7 +17518,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="8">
@@ -17564,7 +17570,7 @@
         <v>356</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>7</v>
@@ -17652,7 +17658,7 @@
         <v>372</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>7</v>
@@ -17671,7 +17677,7 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>1098</v>
@@ -17738,7 +17744,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="28">
@@ -17777,7 +17783,7 @@
         <v>17</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="31">
@@ -17785,7 +17791,7 @@
         <v>394</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>7</v>
@@ -17871,7 +17877,7 @@
         <v>17</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="39">
@@ -17979,7 +17985,7 @@
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>49</v>
@@ -18013,7 +18019,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="50">
@@ -18021,7 +18027,7 @@
         <v>433</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>7</v>
@@ -18029,7 +18035,7 @@
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>40</v>
@@ -18142,7 +18148,7 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>49</v>
@@ -18291,7 +18297,7 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>6</v>
@@ -18302,7 +18308,7 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>46</v>
@@ -18437,7 +18443,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="6">
@@ -18451,7 +18457,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="7">
@@ -18490,7 +18496,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="10">
@@ -18515,7 +18521,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="12">
@@ -18529,7 +18535,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="13">
@@ -18641,7 +18647,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1097</v>
@@ -18710,7 +18716,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>1100</v>
@@ -18738,7 +18744,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="11">
@@ -18760,7 +18766,7 @@
         <v>49</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>1100</v>
@@ -18807,9 +18813,9 @@
         <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D16" s="23" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -18868,7 +18874,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="22">
@@ -18898,7 +18904,7 @@
         <v>653</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>7</v>
@@ -18909,7 +18915,7 @@
         <v>655</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>7</v>
@@ -18978,7 +18984,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>1100</v>
@@ -19075,7 +19081,7 @@
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -19098,13 +19104,13 @@
         <v>573</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="7">
@@ -19132,7 +19138,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9">
@@ -19146,7 +19152,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10">
@@ -19154,13 +19160,13 @@
         <v>546</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="11">
@@ -19174,7 +19180,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="12">
@@ -19256,7 +19262,7 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>52</v>
@@ -19289,7 +19295,7 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>1096</v>
@@ -19303,7 +19309,7 @@
         <v>569</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>7</v>
@@ -19425,7 +19431,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4">
@@ -19439,7 +19445,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="5">
@@ -19488,7 +19494,7 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>14</v>
@@ -19825,12 +19831,12 @@
         <v>16</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>22</v>
@@ -19839,7 +19845,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="5">
@@ -19853,7 +19859,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6">
@@ -19867,7 +19873,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7">
@@ -19875,13 +19881,13 @@
         <v>716</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="8">
@@ -19889,13 +19895,13 @@
         <v>732</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="9">
@@ -19909,7 +19915,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="10">
@@ -19923,7 +19929,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="11">
@@ -19937,7 +19943,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="12">
@@ -19951,7 +19957,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="13">
@@ -19965,7 +19971,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="14">
@@ -19979,7 +19985,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="15">
@@ -19993,7 +19999,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16">
@@ -20007,7 +20013,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="17">
@@ -20021,7 +20027,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="18">
@@ -20035,12 +20041,12 @@
         <v>17</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>43</v>
@@ -20049,7 +20055,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="20">
@@ -20063,12 +20069,12 @@
         <v>17</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>14</v>
@@ -20077,7 +20083,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="22">
@@ -20091,7 +20097,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="23">
@@ -20105,7 +20111,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24">
@@ -20119,7 +20125,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25">
@@ -20133,7 +20139,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="26">
@@ -20147,7 +20153,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="27">
@@ -20161,7 +20167,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28">
@@ -20175,7 +20181,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="29">
@@ -20189,7 +20195,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="30">
@@ -20203,7 +20209,7 @@
         <v>17</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31">
@@ -20217,7 +20223,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="32">
@@ -20230,8 +20236,8 @@
       <c r="C32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>1177</v>
+      <c r="D32" s="22" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="33">
@@ -20245,7 +20251,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="34">
@@ -20259,7 +20265,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="35">
@@ -20273,7 +20279,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="36">
@@ -20287,12 +20293,12 @@
         <v>7</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>1096</v>
@@ -20300,8 +20306,8 @@
       <c r="C37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>1177</v>
+      <c r="D37" s="22" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="38">
@@ -20315,7 +20321,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="39">
@@ -20329,7 +20335,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="40">
@@ -20343,7 +20349,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="41">
@@ -20357,7 +20363,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="42">
@@ -20371,7 +20377,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="43">
@@ -20379,13 +20385,13 @@
         <v>740</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="44">
@@ -20399,7 +20405,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="45">
@@ -20413,7 +20419,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="46">
@@ -20427,7 +20433,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="47">
@@ -20441,7 +20447,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -20798,7 +20804,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="8">
@@ -20812,7 +20818,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="9">
@@ -20941,7 +20947,7 @@
         <v>847</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>7</v>
@@ -21048,7 +21054,7 @@
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>22</v>
@@ -21176,7 +21182,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7">
@@ -21382,10 +21388,10 @@
         <v>40</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="9">
@@ -21537,7 +21543,7 @@
         <v>882</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>7</v>
@@ -21625,7 +21631,7 @@
         <v>898</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>7</v>
@@ -21773,7 +21779,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="4">
@@ -21829,12 +21835,12 @@
         <v>16</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>66</v>
@@ -21843,7 +21849,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="9">
@@ -21857,7 +21863,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10">
@@ -21918,7 +21924,7 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>342</v>
@@ -21955,7 +21961,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="17">
@@ -21969,7 +21975,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="18">
@@ -21983,7 +21989,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="19">
@@ -21997,7 +22003,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="20">
@@ -22011,12 +22017,12 @@
         <v>17</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>66</v>
@@ -22025,7 +22031,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="22">
@@ -22039,7 +22045,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="23">
@@ -22053,7 +22059,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="24">
@@ -22066,8 +22072,8 @@
       <c r="C24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>1202</v>
+      <c r="D24" s="22" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="25">
@@ -22081,7 +22087,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="26">
@@ -22095,7 +22101,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="27">
@@ -22109,7 +22115,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="28">
@@ -22128,7 +22134,7 @@
         <v>930</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>7</v>
@@ -22139,7 +22145,7 @@
         <v>934</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>7</v>
@@ -22161,7 +22167,7 @@
         <v>942</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>7</v>
@@ -22178,7 +22184,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="34">
@@ -22186,7 +22192,7 @@
         <v>946</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>7</v>
@@ -22216,7 +22222,7 @@
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>1096</v>
@@ -22249,7 +22255,7 @@
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>111</v>
@@ -22381,7 +22387,7 @@
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>66</v>
@@ -22428,13 +22434,13 @@
         <v>1024</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="57">
@@ -22585,7 +22591,7 @@
         <v>1064</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>7</v>
@@ -22654,7 +22660,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -22688,7 +22694,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="4">
@@ -22701,8 +22707,8 @@
       <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>1213</v>
+      <c r="D4" s="22" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="5">
@@ -22735,9 +22741,9 @@
         <v>49</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D7" s="23" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -22911,7 +22917,7 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>279</v>
@@ -23820,12 +23826,15 @@
         <v>22</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>1089</v>
+        <v>1090</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>6</v>
@@ -23853,10 +23862,10 @@
         <v>1096</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="20">
@@ -23870,7 +23879,7 @@
         <v>1090</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="21">
@@ -23931,7 +23940,7 @@
         <v>1089</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="26">
@@ -23942,7 +23951,10 @@
         <v>40</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>1089</v>
+        <v>16</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="27">
@@ -24114,15 +24126,17 @@
     <hyperlink r:id="rId2" ref="D6"/>
     <hyperlink r:id="rId3" ref="D9"/>
     <hyperlink r:id="rId4" ref="D13"/>
-    <hyperlink r:id="rId5" ref="D19"/>
-    <hyperlink r:id="rId6" ref="D20"/>
-    <hyperlink r:id="rId7" ref="D23"/>
-    <hyperlink r:id="rId8" ref="D25"/>
-    <hyperlink r:id="rId9" ref="D38"/>
-    <hyperlink r:id="rId10" ref="D39"/>
-    <hyperlink r:id="rId11" ref="D40"/>
+    <hyperlink r:id="rId5" ref="D16"/>
+    <hyperlink r:id="rId6" ref="D19"/>
+    <hyperlink r:id="rId7" ref="D20"/>
+    <hyperlink r:id="rId8" ref="D23"/>
+    <hyperlink r:id="rId9" ref="D25"/>
+    <hyperlink r:id="rId10" ref="D26"/>
+    <hyperlink r:id="rId11" ref="D38"/>
+    <hyperlink r:id="rId12" ref="D39"/>
+    <hyperlink r:id="rId13" ref="D40"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -24156,7 +24170,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>175</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -24168,7 +24182,7 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>22</v>
@@ -24177,7 +24191,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4">
@@ -24212,8 +24226,8 @@
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>1113</v>
+      <c r="D6" s="22" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="7">
@@ -24249,7 +24263,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10">
@@ -24298,13 +24312,13 @@
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>1100</v>
@@ -24318,7 +24332,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>1100</v>
@@ -24356,7 +24370,7 @@
       <c r="C18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -24486,7 +24500,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3">
@@ -24500,7 +24514,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4">
@@ -24514,7 +24528,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="5">
@@ -24528,7 +24542,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="6">
@@ -24542,7 +24556,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7">
@@ -24550,7 +24564,7 @@
         <v>232</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>7</v>
@@ -24567,12 +24581,12 @@
         <v>17</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>14</v>
@@ -24696,10 +24710,10 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>1105</v>
@@ -24713,10 +24727,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="5">

--- a/data/Pesquisa.xlsx
+++ b/data/Pesquisa.xlsx
@@ -4396,7 +4396,7 @@
       </c>
       <c r="F5" s="4">
         <f>COUNTIF(C2:C514, "*A Favor*")</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="4">
         <f>COUNTIF(C2:C514, "*Indiferente*")</f>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="H5" s="4">
         <f>COUNTIF(C2:C514, "*Contra*")</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7">
@@ -11622,7 +11622,7 @@
         <v>22</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>909</v>
